--- a/external_data/Worldwide_COVID19_tests.xlsx
+++ b/external_data/Worldwide_COVID19_tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luca.perrozzi\Downloads\COVID-19\external_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9476B664-7B2C-48A8-829F-F373FE840A56}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69041F0D-27F8-43D3-A4AF-FF716282F879}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{EBB88D52-8A4A-4FD7-A967-9EE03E8AF256}"/>
   </bookViews>
@@ -1358,7 +1358,7 @@
   <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="100.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1371,617 +1371,632 @@
     <col min="6" max="6" width="205.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+    <row r="1" spans="1:6" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
+        <v>813</v>
+      </c>
+      <c r="C2" s="2">
+        <v>43908</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2">
+        <v>43908</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
-        <v>813</v>
+        <v>27000</v>
       </c>
       <c r="C3" s="2">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1">
-        <v>27000</v>
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C4" s="2">
         <v>43909</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2">
-        <v>43909</v>
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2062</v>
       </c>
       <c r="C5" s="2">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
-        <v>2062</v>
+        <v>8603</v>
       </c>
       <c r="C6" s="2">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="E6" s="2">
+        <v>43909</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1">
-        <v>8603</v>
+        <v>19337</v>
       </c>
       <c r="C7" s="2">
         <v>43909</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2">
         <v>43909</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="1">
-        <v>19337</v>
-      </c>
-      <c r="C8" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="6">
+        <v>16717</v>
+      </c>
+      <c r="C8" s="8">
+        <v>43910</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="8">
+        <v>43910</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1">
+        <v>807</v>
+      </c>
+      <c r="C10" s="2">
         <v>43909</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2">
-        <v>43909</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="6">
-        <v>16717</v>
-      </c>
-      <c r="C9" s="8">
-        <v>43910</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="8">
-        <v>43910</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="7"/>
+      <c r="D10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1">
-        <v>807</v>
+        <v>113615</v>
       </c>
       <c r="C11" s="2">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="E11" s="2">
+        <v>43910</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B12" s="1">
-        <v>113615</v>
+        <v>15613</v>
       </c>
       <c r="C12" s="2">
         <v>43910</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="2">
-        <v>43910</v>
+        <v>38</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1">
-        <v>15613</v>
+        <v>18645</v>
       </c>
       <c r="C13" s="2">
         <v>43910</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B14" s="1">
-        <v>18645</v>
+        <v>16000</v>
       </c>
       <c r="C14" s="2">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B15" s="1">
-        <v>16000</v>
+        <v>18360</v>
       </c>
       <c r="C15" s="2">
-        <v>43906</v>
+        <v>43908</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B16" s="1">
-        <v>18360</v>
+        <v>2927</v>
       </c>
       <c r="C16" s="2">
-        <v>43908</v>
+        <v>43903</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="1">
-        <v>2927</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="C17" s="2">
+        <v>43909</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="1">
+        <v>6326</v>
+      </c>
+      <c r="C18" s="2">
         <v>43903</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="2">
-        <v>43909</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="E18" s="2">
+        <v>43906</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B19" s="1">
-        <v>6326</v>
+        <v>17013</v>
       </c>
       <c r="C19" s="2">
-        <v>43903</v>
+        <v>43909</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E19" s="2">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B20" s="1">
-        <v>17013</v>
+        <v>2561</v>
       </c>
       <c r="C20" s="2">
         <v>43909</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E20" s="2">
         <v>43909</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B21" s="1">
-        <v>2561</v>
+        <v>19511</v>
       </c>
       <c r="C21" s="2">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="2">
-        <v>43909</v>
+        <v>72</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B22" s="1">
-        <v>19511</v>
+        <v>10451</v>
       </c>
       <c r="C22" s="2">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B23" s="1">
-        <v>10451</v>
+        <v>520</v>
       </c>
       <c r="C23" s="2">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B24" s="1">
-        <v>520</v>
+        <v>222</v>
       </c>
       <c r="C24" s="2">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B25" s="1">
-        <v>222</v>
+        <v>1561</v>
       </c>
       <c r="C25" s="2">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
+      </c>
+      <c r="E25" s="2">
+        <v>43910</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1561</v>
-      </c>
-      <c r="C26" s="2">
-        <v>43910</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" s="2">
-        <v>43910</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="B27" s="1">
+        <v>320000</v>
+      </c>
+      <c r="C27" s="2">
+        <v>43885</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="2">
+        <v>43885</v>
+      </c>
       <c r="F27" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B28" s="1">
-        <v>320000</v>
+        <v>4103</v>
       </c>
       <c r="C28" s="2">
-        <v>43885</v>
+        <v>43910</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E28" s="2">
-        <v>43885</v>
+        <v>95</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B29" s="1">
-        <v>4103</v>
+        <v>1039</v>
       </c>
       <c r="C29" s="2">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
+      </c>
+      <c r="E29" s="2">
+        <v>43909</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B30" s="1">
-        <v>1039</v>
+        <v>1264</v>
       </c>
       <c r="C30" s="2">
         <v>43909</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E30" s="2">
-        <v>43909</v>
+        <v>102</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B31" s="1">
-        <v>1264</v>
+        <v>11619</v>
       </c>
       <c r="C31" s="2">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B32" s="1">
-        <v>11619</v>
+        <v>10730</v>
       </c>
       <c r="C32" s="2">
         <v>43910</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>107</v>
+        <v>32</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B33" s="1">
-        <v>10730</v>
+        <v>1641</v>
       </c>
       <c r="C33" s="2">
         <v>43910</v>
@@ -1993,1094 +2008,1079 @@
         <v>32</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B34" s="1">
-        <v>1641</v>
+        <v>2504</v>
       </c>
       <c r="C34" s="2">
         <v>43910</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>32</v>
+        <v>115</v>
+      </c>
+      <c r="E34" s="2">
+        <v>43910</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B35" s="1">
-        <v>2504</v>
+        <v>3000</v>
       </c>
       <c r="C35" s="2">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E35" s="2">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B36" s="1">
-        <v>3000</v>
+        <v>36747</v>
       </c>
       <c r="C36" s="2">
-        <v>43909</v>
+        <v>43905</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E36" s="2">
-        <v>43909</v>
+        <v>121</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B37" s="1">
-        <v>36747</v>
+        <v>167000</v>
       </c>
       <c r="C37" s="2">
         <v>43905</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
+      </c>
+      <c r="E37" s="2">
+        <v>43909</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B38" s="1">
-        <v>167000</v>
+        <v>5271</v>
       </c>
       <c r="C38" s="2">
-        <v>43905</v>
+        <v>43895</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E38" s="2">
-        <v>43909</v>
+        <v>43896</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B39" s="1">
-        <v>5271</v>
+        <v>3007</v>
       </c>
       <c r="C39" s="2">
-        <v>43895</v>
+        <v>43910</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E39" s="2">
-        <v>43896</v>
+        <v>131</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B40" s="1">
-        <v>3007</v>
+        <v>9189</v>
       </c>
       <c r="C40" s="2">
         <v>43910</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B41" s="1">
-        <v>9189</v>
-      </c>
-      <c r="C41" s="2">
-        <v>43910</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F41" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B41" s="6">
         <v>14514</v>
       </c>
-      <c r="C42" s="8">
-        <v>43910</v>
-      </c>
-      <c r="D42" s="10" t="s">
+      <c r="C41" s="8">
+        <v>43910</v>
+      </c>
+      <c r="D41" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E41" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F41" s="4" t="s">
         <v>141</v>
       </c>
     </row>
+    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
     <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="5" t="s">
-        <v>142</v>
+      <c r="A43" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2028</v>
+      </c>
+      <c r="C43" s="2">
+        <v>43910</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E43" s="2">
+        <v>43910</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B44" s="1">
-        <v>2028</v>
+        <v>80000</v>
       </c>
       <c r="C44" s="2">
-        <v>43910</v>
+        <v>43904</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E44" s="2">
-        <v>43910</v>
+        <v>43904</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B45" s="1">
-        <v>80000</v>
+        <v>6600</v>
       </c>
       <c r="C45" s="2">
-        <v>43904</v>
+        <v>43907</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E45" s="2">
-        <v>43904</v>
+        <v>43907</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B46" s="1">
-        <v>6600</v>
+        <v>10864</v>
       </c>
       <c r="C46" s="2">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E46" s="2">
-        <v>43907</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>151</v>
+        <v>43908</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B47" s="1">
-        <v>10864</v>
+        <v>206886</v>
       </c>
       <c r="C47" s="2">
-        <v>43908</v>
+        <v>43910</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E47" s="2">
-        <v>43908</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B48" s="1">
-        <v>206886</v>
+        <v>14901</v>
       </c>
       <c r="C48" s="2">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B49" s="1">
-        <v>14901</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="B49" s="1"/>
       <c r="C49" s="2">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+        <v>163</v>
+      </c>
+      <c r="E49" s="2">
+        <v>43907</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B50" s="1"/>
+        <v>165</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="C50" s="2">
-        <v>43907</v>
+        <v>43903</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E50" s="2">
-        <v>43907</v>
+        <v>43903</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
+      </c>
+      <c r="B51" s="1">
+        <v>3205</v>
       </c>
       <c r="C51" s="2">
-        <v>43903</v>
+        <v>43910</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E51" s="2">
-        <v>43903</v>
+        <v>43910</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B52" s="1">
-        <v>3205</v>
+        <v>1154</v>
       </c>
       <c r="C52" s="2">
         <v>43910</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E52" s="2">
-        <v>43910</v>
+        <v>173</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B53" s="1">
-        <v>1154</v>
+        <v>13876</v>
       </c>
       <c r="C53" s="2">
         <v>43910</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B54" s="1">
-        <v>13876</v>
+        <v>889</v>
       </c>
       <c r="C54" s="2">
-        <v>43910</v>
+        <v>43903</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
+      </c>
+      <c r="E54" s="2">
+        <v>43903</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B55" s="1">
-        <v>889</v>
+        <v>278</v>
       </c>
       <c r="C55" s="2">
-        <v>43903</v>
+        <v>43900</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E55" s="2">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B56" s="1">
-        <v>278</v>
+        <v>186</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C56" s="2">
-        <v>43900</v>
+        <v>43897</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E56" s="2">
-        <v>43902</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>185</v>
-      </c>
+        <v>43897</v>
+      </c>
+      <c r="F56" s="1"/>
     </row>
     <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
+      </c>
+      <c r="B57" s="1">
+        <v>584</v>
       </c>
       <c r="C57" s="2">
-        <v>43897</v>
+        <v>43907</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E57" s="2">
-        <v>43897</v>
-      </c>
-      <c r="F57" s="1"/>
+        <v>190</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B58" s="1">
-        <v>584</v>
+        <v>43735</v>
       </c>
       <c r="C58" s="2">
-        <v>43907</v>
+        <v>43910</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B59" s="1">
-        <v>43735</v>
+        <v>1979</v>
       </c>
       <c r="C59" s="2">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>174</v>
+        <v>197</v>
+      </c>
+      <c r="E59" s="2">
+        <v>43909</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B60" s="1">
-        <v>1979</v>
+        <v>199</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="C60" s="2">
-        <v>43909</v>
+        <v>43906</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E60" s="2">
-        <v>43909</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>198</v>
+        <v>43906</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1455</v>
       </c>
       <c r="C61" s="2">
-        <v>43906</v>
+        <v>43908</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E61" s="2">
-        <v>43906</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>202</v>
+        <v>43908</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B62" s="1">
-        <v>1455</v>
+        <v>206</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="C62" s="2">
-        <v>43908</v>
+        <v>43910</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E62" s="2">
-        <v>43908</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
+      </c>
+      <c r="B63" s="1">
+        <v>13072</v>
       </c>
       <c r="C63" s="2">
         <v>43910</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>210</v>
+        <v>201</v>
+      </c>
+      <c r="E63" s="2">
+        <v>43910</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B64" s="1">
-        <v>13072</v>
+        <v>8400</v>
       </c>
       <c r="C64" s="2">
-        <v>43910</v>
+        <v>43907</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="E64" s="2">
-        <v>43910</v>
+        <v>43908</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B65" s="1">
-        <v>8400</v>
+        <v>8284</v>
       </c>
       <c r="C65" s="2">
-        <v>43907</v>
+        <v>43910</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E65" s="2">
-        <v>43908</v>
+        <v>43910</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B66" s="1">
-        <v>8284</v>
+        <v>219</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="C66" s="2">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E66" s="2">
         <v>43910</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
+      </c>
+      <c r="B67" s="1">
+        <v>2707</v>
       </c>
       <c r="C67" s="2">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E67" s="2">
-        <v>43910</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>222</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F67" s="1"/>
     </row>
     <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B68" s="1">
-        <v>2707</v>
+        <v>9860</v>
       </c>
       <c r="C68" s="2">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F68" s="1"/>
+        <v>227</v>
+      </c>
+      <c r="E68" s="2">
+        <v>43909</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B69" s="1">
-        <v>9860</v>
+        <v>6438</v>
       </c>
       <c r="C69" s="2">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E69" s="2">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B70" s="1">
-        <v>6438</v>
+        <v>232</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="C70" s="2">
         <v>43910</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="E70" s="2">
-        <v>43910</v>
+        <v>234</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
+      </c>
+      <c r="B71" s="1">
+        <v>30000</v>
       </c>
       <c r="C71" s="2">
-        <v>43910</v>
+        <v>43908</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
+      </c>
+      <c r="E71" s="2">
+        <v>43908</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B72" s="1">
-        <v>30000</v>
+        <v>14300</v>
       </c>
       <c r="C72" s="2">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E72" s="2">
-        <v>43908</v>
+        <v>241</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B73" s="1">
-        <v>14300</v>
+        <v>244</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>245</v>
       </c>
       <c r="C73" s="2">
-        <v>43907</v>
+        <v>43897</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>242</v>
+        <v>182</v>
+      </c>
+      <c r="E73" s="2">
+        <v>43897</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C74" s="2">
-        <v>43897</v>
+        <v>43910</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E74" s="2">
-        <v>43897</v>
+        <v>249</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>250</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C75" s="2">
-        <v>43910</v>
+        <v>43907</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="B76" s="1">
+        <v>2900</v>
       </c>
       <c r="C76" s="2">
-        <v>43907</v>
+        <v>43900</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
+      </c>
+      <c r="E76" s="2">
+        <v>43900</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B77" s="1">
-        <v>2900</v>
+        <v>316</v>
       </c>
       <c r="C77" s="2">
-        <v>43900</v>
+        <v>43910</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E77" s="2">
-        <v>43900</v>
+        <v>261</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>262</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B78" s="1">
-        <v>316</v>
+        <v>264</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="C78" s="2">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
+      </c>
+      <c r="E78" s="2">
+        <v>43906</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C79" s="2">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E79" s="2">
-        <v>43906</v>
+        <v>270</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
+      </c>
+      <c r="B80" s="1">
+        <v>37646</v>
       </c>
       <c r="C80" s="2">
+        <v>43904</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C81" s="2">
         <v>43909</v>
       </c>
-      <c r="D80" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B81" s="1">
-        <v>37646</v>
-      </c>
-      <c r="C81" s="2">
-        <v>43904</v>
-      </c>
       <c r="D81" s="3" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>275</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C82" s="2">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C83" s="2">
-        <v>43910</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="F83" s="1" t="s">
         <v>285</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="12" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" location="1/2701" display="http://www.moh.am/ - 1/2701" xr:uid="{DA101D5F-87FD-4FA5-9AA3-C46C3AA54CF9}"/>
-    <hyperlink ref="D4" r:id="rId2" display="https://www.facebook.com/QLDHealth/videos/500903740788781/" xr:uid="{5467A75D-255E-46D3-902C-40C960F38E12}"/>
-    <hyperlink ref="D5" r:id="rId3" display="https://www.health.nsw.gov.au/news/Pages/20200319_00.aspx" xr:uid="{2FB6CD42-54FF-4CFB-93CF-1799212DF949}"/>
-    <hyperlink ref="D6" r:id="rId4" display="https://health.act.gov.au/about-our-health-system/novel-coronavirus-covid-19" xr:uid="{EED30315-6224-42A3-9CCB-15B35E9CB370}"/>
-    <hyperlink ref="D7" r:id="rId5" display="https://ww2.health.wa.gov.au/Media-releases/2020/COVID19-update--19-March-2020" xr:uid="{5D8609D5-0C64-425D-A8DC-EA7BCF56EFFC}"/>
-    <hyperlink ref="D8" r:id="rId6" display="https://www.dhhs.vic.gov.au/more-covid-19-cases-confirmed-victoria-19-march-2020" xr:uid="{8997271F-2E4B-4B83-9511-474DBFB82821}"/>
-    <hyperlink ref="D9" r:id="rId7" display="https://www.sahealth.sa.gov.au/wps/wcm/connect/public+content/sa+health+internet/about+us/news+and+media/all+media+releases/covid-19+coronavirus+update+20+march+2020" xr:uid="{FE0C0D97-739B-4665-93BD-1371AFE97CA1}"/>
-    <hyperlink ref="D11" r:id="rId8" display="https://www.health.tas.gov.au/news/2020/additional_coronavirus_update_20_march_2020" xr:uid="{D45B2D63-A782-4993-8A2E-79B52FE1F187}"/>
-    <hyperlink ref="D12" r:id="rId9" display="https://docs.google.com/spreadsheets/d/e/2PACX-1vRA4P1SSq3KPWtizoRsVU9hcSkbGJIIsZiS_zsqu58mTHZ9XlXLHhKlpUH-6E1onpBHN7x1GNeEJHUr/pubhtml?gid=0&amp;single=true" xr:uid="{D447C434-C189-4BE9-B3BF-15CBF21FEEB1}"/>
-    <hyperlink ref="D13" r:id="rId10" display="https://www.sozialministerium.at/Informationen-zum-Coronavirus/Neuartiges-Coronavirus-(2019-nCov).html" xr:uid="{A7A34320-9E18-4796-A948-FC0650403152}"/>
-    <hyperlink ref="D14" r:id="rId11" display="https://www.moh.gov.bh/COVID19" xr:uid="{21AB4621-3876-4FAD-BA25-B58100DCF42A}"/>
-    <hyperlink ref="D15" r:id="rId12" display="https://news.tut.by/society/676512.html" xr:uid="{6896B2EC-FD61-447D-A8BB-FA3230C60CC7}"/>
-    <hyperlink ref="D16" r:id="rId13" display="https://www.rtbf.be/info/belgique/detail_suivez-le-point-presse-quotidien-sur-l-evolution-du-coronavirus-en-belgique?id=10461040" xr:uid="{C6065A2C-0B0F-48AF-A9C1-30F1F87E37E2}"/>
-    <hyperlink ref="D17" r:id="rId14" display="https://www1.folha.uol.com.br/equilibrioesaude/2020/03/brasil-amplia-producao-de-testes-para-detectar-coronavirus.shtml" xr:uid="{9650595C-959C-461C-B34B-454C285BC57F}"/>
-    <hyperlink ref="D18" r:id="rId15" location="a2" display="https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html - a2" xr:uid="{D17EE7D4-61D2-415F-B0A3-C18587EBC1E4}"/>
-    <hyperlink ref="D19" r:id="rId16" display="http://www.bccdc.ca/about/news-stories/stories/2020/information-on-novel-coronavirus" xr:uid="{06E7B5F5-A7D9-42C6-98DC-E37FAA43EB51}"/>
-    <hyperlink ref="D20" r:id="rId17" display="https://www.alberta.ca/coronavirus-info-for-albertans.aspx" xr:uid="{0CB6F1C0-AFC2-4A80-B7AB-992D3EAABBDF}"/>
-    <hyperlink ref="D21" r:id="rId18" display="https://www.saskatchewan.ca/government/health-care-administration-and-provider-resources/treatment-procedures-and-guidelines/emerging-public-health-issues/2019-novel-coronavirus/cases-and-risk-of-covid-19-in-saskatchewan" xr:uid="{74FBC666-5AF6-45E4-820A-48DE04779044}"/>
-    <hyperlink ref="D22" r:id="rId19" display="https://www.ontario.ca/page/2019-novel-coronavirus" xr:uid="{27AC5C34-C049-461E-8C8B-989B1877CDFC}"/>
-    <hyperlink ref="D23" r:id="rId20" display="https://www.msss.gouv.qc.ca/professionnels/maladies-infectieuses/coronavirus-2019-ncov/" xr:uid="{9313CA09-3196-4C86-BFF3-9893810574CE}"/>
-    <hyperlink ref="D24" r:id="rId21" display="https://www2.gnb.ca/content/gnb/en/departments/ocmoh/cdc/content/respiratory_diseases/coronavirus.html" xr:uid="{4112A050-E321-4C1C-95BC-E09B80EB65A3}"/>
-    <hyperlink ref="D25" r:id="rId22" display="https://www.hss.gov.nt.ca/en/services/coronavirus-disease-covid-19" xr:uid="{EE1E1287-CA0F-4947-81EC-5B6E17D130D1}"/>
-    <hyperlink ref="D26" r:id="rId23" location="cases" display="https://novascotia.ca/coronavirus/ - cases" xr:uid="{3E4CD902-F043-4807-AD61-69071095EC86}"/>
-    <hyperlink ref="D28" r:id="rId24" display="https://www.who.int/docs/default-source/coronaviruse/who-china-joint-mission-on-covid-19-final-report.pdf" xr:uid="{C13A742E-9630-4F12-A46D-70F2E09886E6}"/>
-    <hyperlink ref="D29" r:id="rId25" display="https://www.ins.gov.co/Noticias/Paginas/Coronavirus.aspx" xr:uid="{D6BE2298-47FE-451D-87A9-9334EF620441}"/>
-    <hyperlink ref="D30" r:id="rId26" display="https://www.facebook.com/msaludcr/photos/a.487033575136/10163315305965137/?type=1&amp;theater" xr:uid="{8F56CCC6-303D-46A9-9285-1FD283AD0C15}"/>
-    <hyperlink ref="D31" r:id="rId27" display="https://civilna-zastita.gov.hr/vijesti/priopcenje-za-medije-stozera-civilne-zastite-republike-hrvatske-od-19-ozujka-2020-u-10-30-sati/2273" xr:uid="{B6234275-763A-4098-84D5-C341AE26FD84}"/>
-    <hyperlink ref="D32" r:id="rId28" display="https://onemocneni-aktualne.mzcr.cz/covid-19" xr:uid="{08C62203-99B6-40CA-934F-B83EEFFC54E5}"/>
-    <hyperlink ref="D33" r:id="rId29" display="https://www.ssi.dk/aktuelt/sygdomsudbrud/coronavirus" xr:uid="{38032C18-E43F-4B7D-8684-5D54762B487D}"/>
-    <hyperlink ref="D34" r:id="rId30" display="https://www.ssi.dk/aktuelt/sygdomsudbrud/coronavirus" xr:uid="{CA21AF10-6092-449D-82C8-C43F3EB837C4}"/>
-    <hyperlink ref="D35" r:id="rId31" display="https://news.err.ee/1066045/health-board-nine-new-cases-of-coronavirus-diagnosed-total-rises-to-267" xr:uid="{67921FC8-EF01-46C4-AB90-AA3A5152684C}"/>
-    <hyperlink ref="D36" r:id="rId32" display="https://www.iltalehti.fi/koronavirus/a/15ef38ec-be73-4f72-9565-5a581961b072" xr:uid="{90768231-B895-4602-A15B-18AE25DEC627}"/>
-    <hyperlink ref="D37" r:id="rId33" display="https://www.santepubliquefrance.fr/content/download/237536/2535424" xr:uid="{81FAA98E-3470-4D6B-9F03-4D4C1F664B34}"/>
-    <hyperlink ref="D38" r:id="rId34" display="https://mobil.stern.de/amp/gesundheit/covid-19--so-oft-wird-wirklich-auf-das-coronavirus-getestet-9189186.html" xr:uid="{8D91AD47-4C6E-4376-9348-5FCB70422606}"/>
-    <hyperlink ref="D39" r:id="rId35" display="https://www.news.gov.hk/chi/2020/03/20200306/20200306_172144_708.html" xr:uid="{4E859D9A-0D58-4AC4-AD30-192C3B1BB3B5}"/>
-    <hyperlink ref="D40" r:id="rId36" display="https://koronavirus.gov.hu/" xr:uid="{1CEB047F-F9CF-4A4B-873A-232AD1D3398A}"/>
-    <hyperlink ref="D41" r:id="rId37" display="https://www.covid.is/tolulegar-upplysingar" xr:uid="{A2DD5CE4-AF5D-4616-B18F-1B25FD4ACCF8}"/>
-    <hyperlink ref="D42" r:id="rId38" display="https://www.icmr.nic.in/sites/default/files/whats_new/ICMR_website_update_20March_6PM_IST.pdf" xr:uid="{65B76E14-F657-4E59-B466-52661194BE9B}"/>
-    <hyperlink ref="D44" r:id="rId39" display="https://infeksiemerging.kemkes.go.id/" xr:uid="{B49F2E8C-2685-4A5B-BC18-AC66D4B435FC}"/>
-    <hyperlink ref="D45" r:id="rId40" display="https://www.aa.com.tr/en/latest-on-coronavirus-outbreak/6-000-iranians-get-tested-daily-for-coronavirus/1766072" xr:uid="{FEB79DC0-42E0-4118-B9DB-2031A3521552}"/>
-    <hyperlink ref="D46" r:id="rId41" display="https://twitter.com/rtenews/status/1239979449132646400" xr:uid="{1C951D71-583B-45DD-ABA6-B30E84E33B49}"/>
-    <hyperlink ref="D47" r:id="rId42" display="https://t.me/MOHreport/3265?single" xr:uid="{92D5DAD5-639F-4EAD-A193-C0760C4CB88D}"/>
-    <hyperlink ref="F47" r:id="rId43" location="cite_note-31" display="https://en.wikipedia.org/wiki/COVID-19_testing - cite_note-31" xr:uid="{691E9466-938C-4E5F-80EA-119154E014E9}"/>
-    <hyperlink ref="D48" r:id="rId44" display="http://www.salute.gov.it/imgs/C_17_pagineAree_5351_24_file.pdf" xr:uid="{932EF8DE-EB31-41EE-9A5A-1542098FFA0A}"/>
-    <hyperlink ref="D49" r:id="rId45" display="https://www.mhlw.go.jp/stf/seisakunitsuite/bunya/newpage_00032.html" xr:uid="{1CE46D0A-8F19-4C5D-8E04-8D2B70BE3D07}"/>
-    <hyperlink ref="F49" r:id="rId46" display="https://www.mhlw.go.jp/content/10900000/000610360.pdf" xr:uid="{8FE6066E-0ED1-49B4-8731-62AE7C70BB66}"/>
-    <hyperlink ref="D50" r:id="rId47" display="https://drive.google.com/file/d/1pVBq-c4HLeUis_BS58xT_jJTJZni2JfR/view?usp=sharing" xr:uid="{92541103-A01D-4B3C-B0FF-D63641421705}"/>
-    <hyperlink ref="D51" r:id="rId48" display="https://akipress.com/news:637120:1,545_people_tested_for_coronavirus_in_Kyrgyzstan_%E2%80%93_Health_Minister/" xr:uid="{AFB2C21A-24AD-4A26-9E87-8DFF62DA2D9D}"/>
-    <hyperlink ref="D52" r:id="rId49" display="https://twitter.com/SPKCentrs/status/1240917120713740288" xr:uid="{F56B0CBE-EFE3-4D50-9ECB-F8BF265F2A8D}"/>
-    <hyperlink ref="D53" r:id="rId50" display="http://sam.lrv.lt/lt/naujienos/koronavirusas" xr:uid="{AE111B04-DFE3-44AF-A413-7D5BE37CB724}"/>
-    <hyperlink ref="D54" r:id="rId51" display="http://www.moh.gov.my/index.php/pages/view/2019-ncov-wuhan" xr:uid="{4BBBD889-38AC-420B-AA8A-268D60B03488}"/>
-    <hyperlink ref="D55" r:id="rId52" display="https://timesofmalta.com/articles/view/live-blog-coronavirus-updates-12-cases-in-malta.777782" xr:uid="{9485FB4A-F46A-4AD8-8A56-DD345039C0F7}"/>
-    <hyperlink ref="D56" r:id="rId53" display="https://www.bloomberg.com/news/articles/2020-03-11/mexico-s-low-coronavirus-count-spurs-doubts-about-testing-level" xr:uid="{CA97BF65-D69C-4F0E-8A95-C1520AE13049}"/>
-    <hyperlink ref="D57" r:id="rId54" display="https://twitter.com/rivm/status/1236355606904217607" xr:uid="{D5158083-D304-4DDE-8D06-C4811159C631}"/>
-    <hyperlink ref="D58" r:id="rId55" display="https://www.health.govt.nz/news-media/media-releases/covid-19-three-new-cases-linked-overseas" xr:uid="{0D0752C4-8486-4027-A609-F13C7E868AE5}"/>
-    <hyperlink ref="D59" r:id="rId56" display="https://www.fhi.no/nettpub/coronavirus/helsepersonell/analyserte-prover-fra-mistenkte-tilfeller/" xr:uid="{3E071D0B-F68D-4125-8263-9341F5530875}"/>
-    <hyperlink ref="D60" r:id="rId57" display="https://www.nih.org.pk/wp-content/uploads/2020/03/COVID-19-Daily-Updated-SitRep-19-Mar-2020.pdf" xr:uid="{C61FEF7F-BE1B-48B9-A775-E20C581F6B40}"/>
-    <hyperlink ref="D61" r:id="rId58" display="https://www.facebook.com/mohps/photos/pb.269187066540512.-2207520000../2685682508224277/?type=3&amp;theater" xr:uid="{30411B32-C05F-44CF-A97A-8B850D0F972E}"/>
-    <hyperlink ref="F61" r:id="rId59" display="http://en.wikipedia.org/wiki/COVID-19_testing" xr:uid="{73A2F9AE-6E6D-4EB7-8562-902501D60E20}"/>
-    <hyperlink ref="D62" r:id="rId60" display="https://www.tvn-2.com/nacionales/Panama-confirma-casos-contagio-COVID-19_0_5535946450.html" xr:uid="{2831E965-776D-44ED-9FB2-F5972F7557E3}"/>
-    <hyperlink ref="D63" r:id="rId61" display="https://ncovtracker.doh.gov.ph/" xr:uid="{FAFA9F6C-C615-45E4-9E50-685BE17EF201}"/>
-    <hyperlink ref="F63" r:id="rId62" display="https://www.philstar.com/business/2020/03/09/1999444/only-250-people-tested-day-philippine-health-sector-appears-ill-prepared-covid-19" xr:uid="{9B438AC7-AD26-4325-9B0E-55DE09335F9D}"/>
-    <hyperlink ref="D64" r:id="rId63" display="https://twitter.com/MZ_GOV_PL/status/1240963995777064960" xr:uid="{A5F4E58D-3954-4C34-8727-374EDA892D9B}"/>
-    <hyperlink ref="D65" r:id="rId64" display="https://www.iloveqatar.net/coronavirus/news/health-minister-qatar-has-one-of-the-highest-coronavirus-covid-19-testing-rates-in-the-world" xr:uid="{21625074-864A-439A-8B79-71FB979119EB}"/>
-    <hyperlink ref="D66" r:id="rId65" display="https://www.mai.gov.ro/informare-covid-19-grupul-de-comunicare-strategica-20-martie-ora-13-00/" xr:uid="{0BC3CB4F-8DB8-41B0-808B-EA5D3D48F186}"/>
-    <hyperlink ref="D67" r:id="rId66" display="https://www.rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=14067" xr:uid="{B38C9415-56C5-4196-896E-670B27294ED8}"/>
-    <hyperlink ref="D68" r:id="rId67" display="https://www.korona.gov.sk/" xr:uid="{8714631F-0BB4-4202-BAE2-E7FDBBBCD015}"/>
-    <hyperlink ref="D69" r:id="rId68" display="https://www.rtvslo.si/zdravje/novi-koronavirus/potrjenih-319-okuzb-okoli-45-ljudi-je-hospitaliziranih/517712" xr:uid="{11F6B33C-C2F4-4742-9A96-406C8AD82D46}"/>
-    <hyperlink ref="D70" r:id="rId69" display="http://www.nicd.ac.za/" xr:uid="{1D22FF46-0CFE-4FE5-9B9B-DAE328A5C3DD}"/>
-    <hyperlink ref="D71" r:id="rId70" display="https://www.cdc.go.kr/board/board.es?mid=&amp;bid=0030" xr:uid="{2D21F02D-997B-4704-87E8-53ACDAA6781B}"/>
-    <hyperlink ref="D72" r:id="rId71" display="https://english.elpais.com/society/2020-03-18/lack-of-testing-hampering-spains-efforts-to-slow-coronavirus-outbreak.html" xr:uid="{E098AAFA-7F45-4EDA-804F-B9F0B14CB654}"/>
-    <hyperlink ref="D73" r:id="rId72" display="https://www.folkhalsomyndigheten.se/smittskydd-beredskap/utbrott/aktuella-utbrott/covid-19/aktuellt-epidemiologiskt-lage/" xr:uid="{419F02CB-7B7E-46A0-82A4-A77BFB835A0F}"/>
-    <hyperlink ref="D74" r:id="rId73" display="https://www.tio.ch/svizzera/attualita/1423771/ticino-casi-cantone-numero-svizzera-coronavirus" xr:uid="{1D09B867-3368-453A-A26F-9D1BE7B1E395}"/>
-    <hyperlink ref="D75" r:id="rId74" display="https://www.cdc.gov.tw/en" xr:uid="{F3072831-CD6C-4EE0-94FF-104A034FDD25}"/>
-    <hyperlink ref="D76" r:id="rId75" display="https://ddc.moph.go.th/viralpneumonia/eng/index.php" xr:uid="{046478F1-0D60-4C6B-B855-1C7F17DE6E6B}"/>
-    <hyperlink ref="F76" r:id="rId76" display="http://web.archive.org/web/20200317190015/https:/ddc.moph.go.th/viralpneumonia/eng/index.php" xr:uid="{12F32458-786A-42F9-88B9-18B30DC573D1}"/>
-    <hyperlink ref="D77" r:id="rId77" display="https://twitter.com/drfahrettinkoca/status/1237345923858075650" xr:uid="{983FCF76-E01E-4D9C-947E-EF9D2E8365B8}"/>
-    <hyperlink ref="F77" r:id="rId78" display="https://en.wikipedia.org/wiki/COVID-19_testing" xr:uid="{E4CFF2AC-6974-43A9-803A-8D70FB4EA0FA}"/>
-    <hyperlink ref="D78" r:id="rId79" display="https://moz.gov.ua/article/news/operativna-informacija-pro-poshirennja-koronavirusnoi-infekcii-2019-ncov-" xr:uid="{0CC66DDF-6A4E-4EF6-B998-DD7F136DAC22}"/>
-    <hyperlink ref="F78" r:id="rId80" display="http://web.archive.org/web/20200317163611/https:/moz.gov.ua/article/news/operativna-informacija-pro-poshirennja-koronavirusnoi-infekcii-2019-ncov-" xr:uid="{ECE63411-7DF8-42E3-8E54-A70269BACED2}"/>
-    <hyperlink ref="D79" r:id="rId81" display="https://twitter.com/mohapuae/status/1239510770133712896?s=20" xr:uid="{68A0EEAD-070C-407E-828B-AD716C7FDB13}"/>
-    <hyperlink ref="D80" r:id="rId82" location="number-of-cases" display="https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public - number-of-cases" xr:uid="{37104DBF-5A8E-4C92-9C58-3B70D03AB82F}"/>
-    <hyperlink ref="D81" r:id="rId83" display="https://www.cdc.gov/coronavirus/2019-ncov/cases-updates/testing-in-us.html" xr:uid="{2D5AE086-37C9-46C9-BC52-F0EA4E202AE8}"/>
-    <hyperlink ref="D82" r:id="rId84" display="http://covidtracking.com/" xr:uid="{F4CA3882-B03D-439F-AE9A-8A753E84E156}"/>
-    <hyperlink ref="D83" r:id="rId85" display="https://ncov.moh.gov.vn/" xr:uid="{D089EC59-2DC7-4B12-B24B-A4FB714D57E2}"/>
-    <hyperlink ref="A1" r:id="rId86" display="https://ourworldindata.org/coronavirus-testing-source-data" xr:uid="{53EE61E9-29BE-4F99-8581-320A0AFDB0E0}"/>
+    <hyperlink ref="D2" r:id="rId1" location="1/2701" display="http://www.moh.am/ - 1/2701" xr:uid="{DA101D5F-87FD-4FA5-9AA3-C46C3AA54CF9}"/>
+    <hyperlink ref="D3" r:id="rId2" display="https://www.facebook.com/QLDHealth/videos/500903740788781/" xr:uid="{5467A75D-255E-46D3-902C-40C960F38E12}"/>
+    <hyperlink ref="D4" r:id="rId3" display="https://www.health.nsw.gov.au/news/Pages/20200319_00.aspx" xr:uid="{2FB6CD42-54FF-4CFB-93CF-1799212DF949}"/>
+    <hyperlink ref="D5" r:id="rId4" display="https://health.act.gov.au/about-our-health-system/novel-coronavirus-covid-19" xr:uid="{EED30315-6224-42A3-9CCB-15B35E9CB370}"/>
+    <hyperlink ref="D6" r:id="rId5" display="https://ww2.health.wa.gov.au/Media-releases/2020/COVID19-update--19-March-2020" xr:uid="{5D8609D5-0C64-425D-A8DC-EA7BCF56EFFC}"/>
+    <hyperlink ref="D7" r:id="rId6" display="https://www.dhhs.vic.gov.au/more-covid-19-cases-confirmed-victoria-19-march-2020" xr:uid="{8997271F-2E4B-4B83-9511-474DBFB82821}"/>
+    <hyperlink ref="D8" r:id="rId7" display="https://www.sahealth.sa.gov.au/wps/wcm/connect/public+content/sa+health+internet/about+us/news+and+media/all+media+releases/covid-19+coronavirus+update+20+march+2020" xr:uid="{FE0C0D97-739B-4665-93BD-1371AFE97CA1}"/>
+    <hyperlink ref="D10" r:id="rId8" display="https://www.health.tas.gov.au/news/2020/additional_coronavirus_update_20_march_2020" xr:uid="{D45B2D63-A782-4993-8A2E-79B52FE1F187}"/>
+    <hyperlink ref="D11" r:id="rId9" display="https://docs.google.com/spreadsheets/d/e/2PACX-1vRA4P1SSq3KPWtizoRsVU9hcSkbGJIIsZiS_zsqu58mTHZ9XlXLHhKlpUH-6E1onpBHN7x1GNeEJHUr/pubhtml?gid=0&amp;single=true" xr:uid="{D447C434-C189-4BE9-B3BF-15CBF21FEEB1}"/>
+    <hyperlink ref="D12" r:id="rId10" display="https://www.sozialministerium.at/Informationen-zum-Coronavirus/Neuartiges-Coronavirus-(2019-nCov).html" xr:uid="{A7A34320-9E18-4796-A948-FC0650403152}"/>
+    <hyperlink ref="D13" r:id="rId11" display="https://www.moh.gov.bh/COVID19" xr:uid="{21AB4621-3876-4FAD-BA25-B58100DCF42A}"/>
+    <hyperlink ref="D14" r:id="rId12" display="https://news.tut.by/society/676512.html" xr:uid="{6896B2EC-FD61-447D-A8BB-FA3230C60CC7}"/>
+    <hyperlink ref="D15" r:id="rId13" display="https://www.rtbf.be/info/belgique/detail_suivez-le-point-presse-quotidien-sur-l-evolution-du-coronavirus-en-belgique?id=10461040" xr:uid="{C6065A2C-0B0F-48AF-A9C1-30F1F87E37E2}"/>
+    <hyperlink ref="D16" r:id="rId14" display="https://www1.folha.uol.com.br/equilibrioesaude/2020/03/brasil-amplia-producao-de-testes-para-detectar-coronavirus.shtml" xr:uid="{9650595C-959C-461C-B34B-454C285BC57F}"/>
+    <hyperlink ref="D17" r:id="rId15" location="a2" display="https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html - a2" xr:uid="{D17EE7D4-61D2-415F-B0A3-C18587EBC1E4}"/>
+    <hyperlink ref="D18" r:id="rId16" display="http://www.bccdc.ca/about/news-stories/stories/2020/information-on-novel-coronavirus" xr:uid="{06E7B5F5-A7D9-42C6-98DC-E37FAA43EB51}"/>
+    <hyperlink ref="D19" r:id="rId17" display="https://www.alberta.ca/coronavirus-info-for-albertans.aspx" xr:uid="{0CB6F1C0-AFC2-4A80-B7AB-992D3EAABBDF}"/>
+    <hyperlink ref="D20" r:id="rId18" display="https://www.saskatchewan.ca/government/health-care-administration-and-provider-resources/treatment-procedures-and-guidelines/emerging-public-health-issues/2019-novel-coronavirus/cases-and-risk-of-covid-19-in-saskatchewan" xr:uid="{74FBC666-5AF6-45E4-820A-48DE04779044}"/>
+    <hyperlink ref="D21" r:id="rId19" display="https://www.ontario.ca/page/2019-novel-coronavirus" xr:uid="{27AC5C34-C049-461E-8C8B-989B1877CDFC}"/>
+    <hyperlink ref="D22" r:id="rId20" display="https://www.msss.gouv.qc.ca/professionnels/maladies-infectieuses/coronavirus-2019-ncov/" xr:uid="{9313CA09-3196-4C86-BFF3-9893810574CE}"/>
+    <hyperlink ref="D23" r:id="rId21" display="https://www2.gnb.ca/content/gnb/en/departments/ocmoh/cdc/content/respiratory_diseases/coronavirus.html" xr:uid="{4112A050-E321-4C1C-95BC-E09B80EB65A3}"/>
+    <hyperlink ref="D24" r:id="rId22" display="https://www.hss.gov.nt.ca/en/services/coronavirus-disease-covid-19" xr:uid="{EE1E1287-CA0F-4947-81EC-5B6E17D130D1}"/>
+    <hyperlink ref="D25" r:id="rId23" location="cases" display="https://novascotia.ca/coronavirus/ - cases" xr:uid="{3E4CD902-F043-4807-AD61-69071095EC86}"/>
+    <hyperlink ref="D27" r:id="rId24" display="https://www.who.int/docs/default-source/coronaviruse/who-china-joint-mission-on-covid-19-final-report.pdf" xr:uid="{C13A742E-9630-4F12-A46D-70F2E09886E6}"/>
+    <hyperlink ref="D28" r:id="rId25" display="https://www.ins.gov.co/Noticias/Paginas/Coronavirus.aspx" xr:uid="{D6BE2298-47FE-451D-87A9-9334EF620441}"/>
+    <hyperlink ref="D29" r:id="rId26" display="https://www.facebook.com/msaludcr/photos/a.487033575136/10163315305965137/?type=1&amp;theater" xr:uid="{8F56CCC6-303D-46A9-9285-1FD283AD0C15}"/>
+    <hyperlink ref="D30" r:id="rId27" display="https://civilna-zastita.gov.hr/vijesti/priopcenje-za-medije-stozera-civilne-zastite-republike-hrvatske-od-19-ozujka-2020-u-10-30-sati/2273" xr:uid="{B6234275-763A-4098-84D5-C341AE26FD84}"/>
+    <hyperlink ref="D31" r:id="rId28" display="https://onemocneni-aktualne.mzcr.cz/covid-19" xr:uid="{08C62203-99B6-40CA-934F-B83EEFFC54E5}"/>
+    <hyperlink ref="D32" r:id="rId29" display="https://www.ssi.dk/aktuelt/sygdomsudbrud/coronavirus" xr:uid="{38032C18-E43F-4B7D-8684-5D54762B487D}"/>
+    <hyperlink ref="D33" r:id="rId30" display="https://www.ssi.dk/aktuelt/sygdomsudbrud/coronavirus" xr:uid="{CA21AF10-6092-449D-82C8-C43F3EB837C4}"/>
+    <hyperlink ref="D34" r:id="rId31" display="https://news.err.ee/1066045/health-board-nine-new-cases-of-coronavirus-diagnosed-total-rises-to-267" xr:uid="{67921FC8-EF01-46C4-AB90-AA3A5152684C}"/>
+    <hyperlink ref="D35" r:id="rId32" display="https://www.iltalehti.fi/koronavirus/a/15ef38ec-be73-4f72-9565-5a581961b072" xr:uid="{90768231-B895-4602-A15B-18AE25DEC627}"/>
+    <hyperlink ref="D36" r:id="rId33" display="https://www.santepubliquefrance.fr/content/download/237536/2535424" xr:uid="{81FAA98E-3470-4D6B-9F03-4D4C1F664B34}"/>
+    <hyperlink ref="D37" r:id="rId34" display="https://mobil.stern.de/amp/gesundheit/covid-19--so-oft-wird-wirklich-auf-das-coronavirus-getestet-9189186.html" xr:uid="{8D91AD47-4C6E-4376-9348-5FCB70422606}"/>
+    <hyperlink ref="D38" r:id="rId35" display="https://www.news.gov.hk/chi/2020/03/20200306/20200306_172144_708.html" xr:uid="{4E859D9A-0D58-4AC4-AD30-192C3B1BB3B5}"/>
+    <hyperlink ref="D39" r:id="rId36" display="https://koronavirus.gov.hu/" xr:uid="{1CEB047F-F9CF-4A4B-873A-232AD1D3398A}"/>
+    <hyperlink ref="D40" r:id="rId37" display="https://www.covid.is/tolulegar-upplysingar" xr:uid="{A2DD5CE4-AF5D-4616-B18F-1B25FD4ACCF8}"/>
+    <hyperlink ref="D41" r:id="rId38" display="https://www.icmr.nic.in/sites/default/files/whats_new/ICMR_website_update_20March_6PM_IST.pdf" xr:uid="{65B76E14-F657-4E59-B466-52661194BE9B}"/>
+    <hyperlink ref="D43" r:id="rId39" display="https://infeksiemerging.kemkes.go.id/" xr:uid="{B49F2E8C-2685-4A5B-BC18-AC66D4B435FC}"/>
+    <hyperlink ref="D44" r:id="rId40" display="https://www.aa.com.tr/en/latest-on-coronavirus-outbreak/6-000-iranians-get-tested-daily-for-coronavirus/1766072" xr:uid="{FEB79DC0-42E0-4118-B9DB-2031A3521552}"/>
+    <hyperlink ref="D45" r:id="rId41" display="https://twitter.com/rtenews/status/1239979449132646400" xr:uid="{1C951D71-583B-45DD-ABA6-B30E84E33B49}"/>
+    <hyperlink ref="D46" r:id="rId42" display="https://t.me/MOHreport/3265?single" xr:uid="{92D5DAD5-639F-4EAD-A193-C0760C4CB88D}"/>
+    <hyperlink ref="F46" r:id="rId43" location="cite_note-31" display="https://en.wikipedia.org/wiki/COVID-19_testing - cite_note-31" xr:uid="{691E9466-938C-4E5F-80EA-119154E014E9}"/>
+    <hyperlink ref="D47" r:id="rId44" display="http://www.salute.gov.it/imgs/C_17_pagineAree_5351_24_file.pdf" xr:uid="{932EF8DE-EB31-41EE-9A5A-1542098FFA0A}"/>
+    <hyperlink ref="D48" r:id="rId45" display="https://www.mhlw.go.jp/stf/seisakunitsuite/bunya/newpage_00032.html" xr:uid="{1CE46D0A-8F19-4C5D-8E04-8D2B70BE3D07}"/>
+    <hyperlink ref="F48" r:id="rId46" display="https://www.mhlw.go.jp/content/10900000/000610360.pdf" xr:uid="{8FE6066E-0ED1-49B4-8731-62AE7C70BB66}"/>
+    <hyperlink ref="D49" r:id="rId47" display="https://drive.google.com/file/d/1pVBq-c4HLeUis_BS58xT_jJTJZni2JfR/view?usp=sharing" xr:uid="{92541103-A01D-4B3C-B0FF-D63641421705}"/>
+    <hyperlink ref="D50" r:id="rId48" display="https://akipress.com/news:637120:1,545_people_tested_for_coronavirus_in_Kyrgyzstan_%E2%80%93_Health_Minister/" xr:uid="{AFB2C21A-24AD-4A26-9E87-8DFF62DA2D9D}"/>
+    <hyperlink ref="D51" r:id="rId49" display="https://twitter.com/SPKCentrs/status/1240917120713740288" xr:uid="{F56B0CBE-EFE3-4D50-9ECB-F8BF265F2A8D}"/>
+    <hyperlink ref="D52" r:id="rId50" display="http://sam.lrv.lt/lt/naujienos/koronavirusas" xr:uid="{AE111B04-DFE3-44AF-A413-7D5BE37CB724}"/>
+    <hyperlink ref="D53" r:id="rId51" display="http://www.moh.gov.my/index.php/pages/view/2019-ncov-wuhan" xr:uid="{4BBBD889-38AC-420B-AA8A-268D60B03488}"/>
+    <hyperlink ref="D54" r:id="rId52" display="https://timesofmalta.com/articles/view/live-blog-coronavirus-updates-12-cases-in-malta.777782" xr:uid="{9485FB4A-F46A-4AD8-8A56-DD345039C0F7}"/>
+    <hyperlink ref="D55" r:id="rId53" display="https://www.bloomberg.com/news/articles/2020-03-11/mexico-s-low-coronavirus-count-spurs-doubts-about-testing-level" xr:uid="{CA97BF65-D69C-4F0E-8A95-C1520AE13049}"/>
+    <hyperlink ref="D56" r:id="rId54" display="https://twitter.com/rivm/status/1236355606904217607" xr:uid="{D5158083-D304-4DDE-8D06-C4811159C631}"/>
+    <hyperlink ref="D57" r:id="rId55" display="https://www.health.govt.nz/news-media/media-releases/covid-19-three-new-cases-linked-overseas" xr:uid="{0D0752C4-8486-4027-A609-F13C7E868AE5}"/>
+    <hyperlink ref="D58" r:id="rId56" display="https://www.fhi.no/nettpub/coronavirus/helsepersonell/analyserte-prover-fra-mistenkte-tilfeller/" xr:uid="{3E071D0B-F68D-4125-8263-9341F5530875}"/>
+    <hyperlink ref="D59" r:id="rId57" display="https://www.nih.org.pk/wp-content/uploads/2020/03/COVID-19-Daily-Updated-SitRep-19-Mar-2020.pdf" xr:uid="{C61FEF7F-BE1B-48B9-A775-E20C581F6B40}"/>
+    <hyperlink ref="D60" r:id="rId58" display="https://www.facebook.com/mohps/photos/pb.269187066540512.-2207520000../2685682508224277/?type=3&amp;theater" xr:uid="{30411B32-C05F-44CF-A97A-8B850D0F972E}"/>
+    <hyperlink ref="F60" r:id="rId59" display="http://en.wikipedia.org/wiki/COVID-19_testing" xr:uid="{73A2F9AE-6E6D-4EB7-8562-902501D60E20}"/>
+    <hyperlink ref="D61" r:id="rId60" display="https://www.tvn-2.com/nacionales/Panama-confirma-casos-contagio-COVID-19_0_5535946450.html" xr:uid="{2831E965-776D-44ED-9FB2-F5972F7557E3}"/>
+    <hyperlink ref="D62" r:id="rId61" display="https://ncovtracker.doh.gov.ph/" xr:uid="{FAFA9F6C-C615-45E4-9E50-685BE17EF201}"/>
+    <hyperlink ref="F62" r:id="rId62" display="https://www.philstar.com/business/2020/03/09/1999444/only-250-people-tested-day-philippine-health-sector-appears-ill-prepared-covid-19" xr:uid="{9B438AC7-AD26-4325-9B0E-55DE09335F9D}"/>
+    <hyperlink ref="D63" r:id="rId63" display="https://twitter.com/MZ_GOV_PL/status/1240963995777064960" xr:uid="{A5F4E58D-3954-4C34-8727-374EDA892D9B}"/>
+    <hyperlink ref="D64" r:id="rId64" display="https://www.iloveqatar.net/coronavirus/news/health-minister-qatar-has-one-of-the-highest-coronavirus-covid-19-testing-rates-in-the-world" xr:uid="{21625074-864A-439A-8B79-71FB979119EB}"/>
+    <hyperlink ref="D65" r:id="rId65" display="https://www.mai.gov.ro/informare-covid-19-grupul-de-comunicare-strategica-20-martie-ora-13-00/" xr:uid="{0BC3CB4F-8DB8-41B0-808B-EA5D3D48F186}"/>
+    <hyperlink ref="D66" r:id="rId66" display="https://www.rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=14067" xr:uid="{B38C9415-56C5-4196-896E-670B27294ED8}"/>
+    <hyperlink ref="D67" r:id="rId67" display="https://www.korona.gov.sk/" xr:uid="{8714631F-0BB4-4202-BAE2-E7FDBBBCD015}"/>
+    <hyperlink ref="D68" r:id="rId68" display="https://www.rtvslo.si/zdravje/novi-koronavirus/potrjenih-319-okuzb-okoli-45-ljudi-je-hospitaliziranih/517712" xr:uid="{11F6B33C-C2F4-4742-9A96-406C8AD82D46}"/>
+    <hyperlink ref="D69" r:id="rId69" display="http://www.nicd.ac.za/" xr:uid="{1D22FF46-0CFE-4FE5-9B9B-DAE328A5C3DD}"/>
+    <hyperlink ref="D70" r:id="rId70" display="https://www.cdc.go.kr/board/board.es?mid=&amp;bid=0030" xr:uid="{2D21F02D-997B-4704-87E8-53ACDAA6781B}"/>
+    <hyperlink ref="D71" r:id="rId71" display="https://english.elpais.com/society/2020-03-18/lack-of-testing-hampering-spains-efforts-to-slow-coronavirus-outbreak.html" xr:uid="{E098AAFA-7F45-4EDA-804F-B9F0B14CB654}"/>
+    <hyperlink ref="D72" r:id="rId72" display="https://www.folkhalsomyndigheten.se/smittskydd-beredskap/utbrott/aktuella-utbrott/covid-19/aktuellt-epidemiologiskt-lage/" xr:uid="{419F02CB-7B7E-46A0-82A4-A77BFB835A0F}"/>
+    <hyperlink ref="D73" r:id="rId73" display="https://www.tio.ch/svizzera/attualita/1423771/ticino-casi-cantone-numero-svizzera-coronavirus" xr:uid="{1D09B867-3368-453A-A26F-9D1BE7B1E395}"/>
+    <hyperlink ref="D74" r:id="rId74" display="https://www.cdc.gov.tw/en" xr:uid="{F3072831-CD6C-4EE0-94FF-104A034FDD25}"/>
+    <hyperlink ref="D75" r:id="rId75" display="https://ddc.moph.go.th/viralpneumonia/eng/index.php" xr:uid="{046478F1-0D60-4C6B-B855-1C7F17DE6E6B}"/>
+    <hyperlink ref="F75" r:id="rId76" display="http://web.archive.org/web/20200317190015/https:/ddc.moph.go.th/viralpneumonia/eng/index.php" xr:uid="{12F32458-786A-42F9-88B9-18B30DC573D1}"/>
+    <hyperlink ref="D76" r:id="rId77" display="https://twitter.com/drfahrettinkoca/status/1237345923858075650" xr:uid="{983FCF76-E01E-4D9C-947E-EF9D2E8365B8}"/>
+    <hyperlink ref="F76" r:id="rId78" display="https://en.wikipedia.org/wiki/COVID-19_testing" xr:uid="{E4CFF2AC-6974-43A9-803A-8D70FB4EA0FA}"/>
+    <hyperlink ref="D77" r:id="rId79" display="https://moz.gov.ua/article/news/operativna-informacija-pro-poshirennja-koronavirusnoi-infekcii-2019-ncov-" xr:uid="{0CC66DDF-6A4E-4EF6-B998-DD7F136DAC22}"/>
+    <hyperlink ref="F77" r:id="rId80" display="http://web.archive.org/web/20200317163611/https:/moz.gov.ua/article/news/operativna-informacija-pro-poshirennja-koronavirusnoi-infekcii-2019-ncov-" xr:uid="{ECE63411-7DF8-42E3-8E54-A70269BACED2}"/>
+    <hyperlink ref="D78" r:id="rId81" display="https://twitter.com/mohapuae/status/1239510770133712896?s=20" xr:uid="{68A0EEAD-070C-407E-828B-AD716C7FDB13}"/>
+    <hyperlink ref="D79" r:id="rId82" location="number-of-cases" display="https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public - number-of-cases" xr:uid="{37104DBF-5A8E-4C92-9C58-3B70D03AB82F}"/>
+    <hyperlink ref="D80" r:id="rId83" display="https://www.cdc.gov/coronavirus/2019-ncov/cases-updates/testing-in-us.html" xr:uid="{2D5AE086-37C9-46C9-BC52-F0EA4E202AE8}"/>
+    <hyperlink ref="D81" r:id="rId84" display="http://covidtracking.com/" xr:uid="{F4CA3882-B03D-439F-AE9A-8A753E84E156}"/>
+    <hyperlink ref="D82" r:id="rId85" display="https://ncov.moh.gov.vn/" xr:uid="{D089EC59-2DC7-4B12-B24B-A4FB714D57E2}"/>
+    <hyperlink ref="A83" r:id="rId86" display="https://ourworldindata.org/coronavirus-testing-source-data" xr:uid="{53EE61E9-29BE-4F99-8581-320A0AFDB0E0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId87"/>
